--- a/Data/upsetplot_criteria.xlsx
+++ b/Data/upsetplot_criteria.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmajohnson/Desktop/Wong Lab/Review Paper/LitReviewGraphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmajohnson/Desktop/Wong Lab/Review Paper/EmGePt_LitReview/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4406D6D-1F91-1947-ACAE-7EE088B7EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD3694AD-DC7E-B949-8C54-D626078D3DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{73E27D63-4179-4243-B877-F108F5991BFD}"/>
+    <workbookView xWindow="-33700" yWindow="340" windowWidth="30240" windowHeight="17720" xr2:uid="{73E27D63-4179-4243-B877-F108F5991BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="255">
   <si>
     <t>Citation</t>
   </si>
@@ -795,19 +795,31 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>1 - ncRNA expression</t>
+  </si>
+  <si>
+    <t>2 - ncRNA expression and phenotype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,8 +842,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC8FFC5-234A-6F4A-AC56-5FCEBC8F9B5F}">
   <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1222,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1226,7 +1239,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1246,7 +1259,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1263,7 +1276,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1277,7 +1290,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1291,7 +1304,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1308,7 +1321,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1328,7 +1341,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1345,7 +1358,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1359,7 +1372,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1376,7 +1389,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1393,7 +1406,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1410,7 +1423,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1430,7 +1443,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1447,7 +1460,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1464,7 +1477,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1484,7 +1497,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1504,7 +1517,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1518,7 +1531,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1538,7 +1551,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1552,7 +1565,7 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1569,7 +1582,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1589,7 +1602,7 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1609,7 +1622,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1623,7 +1636,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1637,7 +1650,7 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1654,7 +1667,7 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1674,7 +1687,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1688,7 +1701,7 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1705,7 +1718,7 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1722,7 +1735,7 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1739,7 +1752,7 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1756,7 +1769,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1773,7 +1786,7 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1790,7 +1803,7 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1804,7 +1817,7 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1821,7 +1834,7 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1835,7 +1848,7 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1849,7 +1862,7 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1863,7 +1876,7 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1883,7 +1896,7 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1897,7 +1910,7 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1911,7 +1924,7 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1928,7 +1941,7 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1945,7 +1958,7 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1965,7 +1978,7 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1979,7 +1992,7 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1996,7 +2009,7 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2013,7 +2026,7 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2027,7 +2040,7 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2047,7 +2060,7 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2064,7 +2077,7 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2081,7 +2094,7 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2098,7 +2111,7 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2118,7 +2131,7 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2135,7 +2148,7 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2152,7 +2165,7 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2172,7 +2185,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2192,7 +2205,7 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2206,7 +2219,7 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2223,7 +2236,7 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2240,7 +2253,7 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2254,7 +2267,7 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2268,7 +2281,7 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2285,7 +2298,7 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2305,7 +2318,7 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2322,7 +2335,7 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2336,7 +2349,7 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2353,7 +2366,7 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2370,7 +2383,7 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2384,7 +2397,7 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2398,7 +2411,7 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2415,7 +2428,7 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2435,7 +2448,7 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2452,7 +2465,7 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2472,7 +2485,7 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2492,7 +2505,7 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2509,7 +2522,7 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2526,7 +2539,7 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2546,7 +2559,7 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2560,7 +2573,7 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2577,7 +2590,7 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2597,7 +2610,7 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2617,7 +2630,7 @@
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2637,7 +2650,7 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2657,7 +2670,7 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2674,7 +2687,7 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2691,7 +2704,7 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2708,7 +2721,7 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2722,7 +2735,7 @@
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2736,7 +2749,7 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2750,7 +2763,7 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2767,7 +2780,7 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2784,7 +2797,7 @@
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2804,7 +2817,7 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2821,7 +2834,7 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2838,7 +2851,7 @@
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2855,7 +2868,7 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2875,7 +2888,7 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2892,7 +2905,7 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2909,7 +2922,7 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2929,7 +2942,7 @@
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2943,7 +2956,7 @@
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2957,7 +2970,7 @@
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2977,7 +2990,7 @@
       <c r="E106">
         <v>1</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2997,7 +3010,7 @@
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3017,7 +3030,7 @@
       <c r="E108">
         <v>1</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3037,7 +3050,7 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3054,7 +3067,7 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3074,7 +3087,7 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3088,7 +3101,7 @@
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3105,7 +3118,7 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3122,7 +3135,7 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3139,7 +3152,7 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3156,7 +3169,7 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3173,7 +3186,7 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3190,7 +3203,7 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3207,7 +3220,7 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3221,7 +3234,7 @@
       <c r="C120">
         <v>1</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3241,7 +3254,7 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3258,7 +3271,7 @@
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3275,7 +3288,7 @@
       <c r="E123">
         <v>1</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3295,7 +3308,7 @@
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3309,7 +3322,7 @@
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3326,7 +3339,7 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3343,7 +3356,7 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3363,7 +3376,7 @@
       <c r="E128">
         <v>1</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3380,7 +3393,7 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3394,7 +3407,7 @@
       <c r="C130">
         <v>1</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3411,7 +3424,7 @@
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3428,7 +3441,7 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3442,7 +3455,7 @@
       <c r="C133">
         <v>1</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3459,7 +3472,7 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3476,7 +3489,7 @@
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3493,7 +3506,7 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3513,7 +3526,7 @@
       <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3530,7 +3543,7 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3544,7 +3557,7 @@
       <c r="C139">
         <v>1</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3558,7 +3571,7 @@
       <c r="C140">
         <v>1</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3575,7 +3588,7 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3595,7 +3608,7 @@
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3612,7 +3625,7 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3629,7 +3642,7 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3649,7 +3662,7 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3666,7 +3679,7 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3680,7 +3693,7 @@
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3697,7 +3710,7 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3717,7 +3730,7 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3737,7 +3750,7 @@
       <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3754,7 +3767,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3768,7 +3781,7 @@
       <c r="C152">
         <v>1</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3788,7 +3801,7 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3802,7 +3815,7 @@
       <c r="C154">
         <v>1</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3816,7 +3829,7 @@
       <c r="C155">
         <v>1</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3833,7 +3846,7 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3850,7 +3863,7 @@
       <c r="D157">
         <v>1</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3864,7 +3877,7 @@
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3878,7 +3891,7 @@
       <c r="C159">
         <v>1</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3892,7 +3905,7 @@
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3909,7 +3922,7 @@
       <c r="D161">
         <v>1</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3929,7 +3942,7 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3946,7 +3959,7 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3966,7 +3979,7 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3980,7 +3993,7 @@
       <c r="C165">
         <v>1</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3994,7 +4007,7 @@
       <c r="C166">
         <v>1</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4008,7 +4021,7 @@
       <c r="C167">
         <v>1</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4025,7 +4038,7 @@
       <c r="D168">
         <v>1</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4042,7 +4055,7 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4059,7 +4072,7 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4079,7 +4092,7 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4096,7 +4109,7 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4113,7 +4126,7 @@
       <c r="D173">
         <v>1</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4130,7 +4143,7 @@
       <c r="E174">
         <v>1</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4150,7 +4163,7 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4170,7 +4183,7 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4184,7 +4197,7 @@
       <c r="C177">
         <v>1</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4201,7 +4214,7 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4215,7 +4228,7 @@
       <c r="C179">
         <v>1</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4232,7 +4245,7 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4246,7 +4259,7 @@
       <c r="C181">
         <v>1</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4260,8 +4273,8 @@
       <c r="C182">
         <v>1</v>
       </c>
-      <c r="F182" t="s">
-        <v>161</v>
+      <c r="F182" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4277,7 +4290,7 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4294,7 +4307,7 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4308,7 +4321,7 @@
       <c r="C185">
         <v>1</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4325,8 +4338,8 @@
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186" t="s">
-        <v>163</v>
+      <c r="F186" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,7 +4355,7 @@
       <c r="D187">
         <v>1</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4356,7 +4369,7 @@
       <c r="C188">
         <v>1</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4376,7 +4389,7 @@
       <c r="E189">
         <v>1</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4390,7 +4403,7 @@
       <c r="C190">
         <v>1</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4407,7 +4420,7 @@
       <c r="D191">
         <v>1</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4427,7 +4440,7 @@
       <c r="E192">
         <v>1</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4444,7 +4457,7 @@
       <c r="D193">
         <v>1</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4464,7 +4477,7 @@
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4481,7 +4494,7 @@
       <c r="D195">
         <v>1</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4498,7 +4511,7 @@
       <c r="D196">
         <v>1</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4515,7 +4528,7 @@
       <c r="D197">
         <v>1</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4529,7 +4542,7 @@
       <c r="C198">
         <v>1</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4543,7 +4556,7 @@
       <c r="C199">
         <v>1</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4560,7 +4573,7 @@
       <c r="D200">
         <v>1</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4574,7 +4587,7 @@
       <c r="C201">
         <v>1</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4588,7 +4601,7 @@
       <c r="C202">
         <v>1</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4608,7 +4621,7 @@
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4628,7 +4641,7 @@
       <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4642,7 +4655,7 @@
       <c r="C205">
         <v>1</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4662,7 +4675,7 @@
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4679,7 +4692,7 @@
       <c r="D207">
         <v>1</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4693,7 +4706,7 @@
       <c r="C208">
         <v>1</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4707,7 +4720,7 @@
       <c r="C209">
         <v>1</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4721,7 +4734,7 @@
       <c r="C210">
         <v>1</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4735,7 +4748,7 @@
       <c r="C211">
         <v>1</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4752,7 +4765,7 @@
       <c r="D212">
         <v>1</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4766,7 +4779,7 @@
       <c r="C213">
         <v>1</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4780,7 +4793,7 @@
       <c r="C214">
         <v>1</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4797,7 +4810,7 @@
       <c r="D215">
         <v>1</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4811,7 +4824,7 @@
       <c r="C216">
         <v>1</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4825,7 +4838,7 @@
       <c r="C217">
         <v>1</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4842,7 +4855,7 @@
       <c r="D218">
         <v>1</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4862,7 +4875,7 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4879,8 +4892,8 @@
       <c r="D220">
         <v>1</v>
       </c>
-      <c r="F220" t="s">
-        <v>182</v>
+      <c r="F220" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4896,7 +4909,7 @@
       <c r="D221">
         <v>1</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4913,7 +4926,7 @@
       <c r="D222">
         <v>1</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4930,8 +4943,8 @@
       <c r="D223">
         <v>1</v>
       </c>
-      <c r="F223" t="s">
-        <v>156</v>
+      <c r="F223" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4947,7 +4960,7 @@
       <c r="D224">
         <v>1</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>249</v>
       </c>
     </row>
